--- a/Assets/Template1.xlsx
+++ b/Assets/Template1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bkt2\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\khoBKT\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B865060-D802-4300-BFB9-F2AD1B7B7668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F3834F-9A16-43A0-9317-100C7EB782C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -18,25 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$36</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ĐVT</t>
   </si>
@@ -77,15 +64,6 @@
   </si>
   <si>
     <t>Tổng giá trị (Đã bao gồm thuế VAT)</t>
-  </si>
-  <si>
-    <t>Người gửi: Đào Xuân Hùng</t>
-  </si>
-  <si>
-    <t>SĐT: 098.272.1858</t>
-  </si>
-  <si>
-    <t>Email: hungdx@bkt.com.vn</t>
   </si>
   <si>
     <t>SĐT:</t>
@@ -191,9 +169,6 @@
     </r>
   </si>
   <si>
-    <t>Khách hàng: CÔNG TY TNHH THƯƠNG MẠI SUNRISE VIỆT NAM</t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
@@ -217,6 +192,12 @@
   </si>
   <si>
     <t>Thuế VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khách hàng:  </t>
+  </si>
+  <si>
+    <t>Hiệu lực báo giá:     ngày</t>
   </si>
 </sst>
 </file>
@@ -228,7 +209,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +305,11 @@
       <b/>
       <sz val="20"/>
       <color indexed="8"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -475,9 +461,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,6 +512,36 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -559,44 +572,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Phần trăm" xfId="5" builtinId="5"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,14 +601,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>182693</xdr:colOff>
+      <xdr:colOff>7433</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>608855</xdr:rowOff>
     </xdr:to>
@@ -647,52 +633,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8754074" y="76200"/>
-          <a:ext cx="1269813" cy="532655"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>901699</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>780958</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>82190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E187AB5A-6D35-4064-89C8-2DD04A973A13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6476999" y="8915401"/>
-          <a:ext cx="3618139" cy="2517414"/>
+          <a:off x="7178040" y="76200"/>
+          <a:ext cx="1104713" cy="532655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,600 +939,600 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="199" width="8.7109375" style="1"/>
-    <col min="200" max="200" width="6.7109375" style="1" customWidth="1"/>
-    <col min="201" max="201" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="199" width="8.6640625" style="1"/>
+    <col min="200" max="200" width="6.6640625" style="1" customWidth="1"/>
+    <col min="201" max="201" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="202" max="202" width="45" style="1" customWidth="1"/>
-    <col min="203" max="203" width="7.28515625" style="1" customWidth="1"/>
+    <col min="203" max="203" width="7.33203125" style="1" customWidth="1"/>
     <col min="204" max="205" width="8" style="1" customWidth="1"/>
     <col min="206" max="206" width="12" style="1" customWidth="1"/>
-    <col min="207" max="207" width="20.28515625" style="1" customWidth="1"/>
-    <col min="208" max="243" width="9.7109375" style="1" customWidth="1"/>
-    <col min="244" max="455" width="8.7109375" style="1"/>
-    <col min="456" max="456" width="6.7109375" style="1" customWidth="1"/>
-    <col min="457" max="457" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="20.33203125" style="1" customWidth="1"/>
+    <col min="208" max="243" width="9.6640625" style="1" customWidth="1"/>
+    <col min="244" max="455" width="8.6640625" style="1"/>
+    <col min="456" max="456" width="6.6640625" style="1" customWidth="1"/>
+    <col min="457" max="457" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="458" max="458" width="45" style="1" customWidth="1"/>
-    <col min="459" max="459" width="7.28515625" style="1" customWidth="1"/>
+    <col min="459" max="459" width="7.33203125" style="1" customWidth="1"/>
     <col min="460" max="461" width="8" style="1" customWidth="1"/>
     <col min="462" max="462" width="12" style="1" customWidth="1"/>
-    <col min="463" max="463" width="20.28515625" style="1" customWidth="1"/>
-    <col min="464" max="499" width="9.7109375" style="1" customWidth="1"/>
-    <col min="500" max="711" width="8.7109375" style="1"/>
-    <col min="712" max="712" width="6.7109375" style="1" customWidth="1"/>
-    <col min="713" max="713" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="20.33203125" style="1" customWidth="1"/>
+    <col min="464" max="499" width="9.6640625" style="1" customWidth="1"/>
+    <col min="500" max="711" width="8.6640625" style="1"/>
+    <col min="712" max="712" width="6.6640625" style="1" customWidth="1"/>
+    <col min="713" max="713" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="714" max="714" width="45" style="1" customWidth="1"/>
-    <col min="715" max="715" width="7.28515625" style="1" customWidth="1"/>
+    <col min="715" max="715" width="7.33203125" style="1" customWidth="1"/>
     <col min="716" max="717" width="8" style="1" customWidth="1"/>
     <col min="718" max="718" width="12" style="1" customWidth="1"/>
-    <col min="719" max="719" width="20.28515625" style="1" customWidth="1"/>
-    <col min="720" max="755" width="9.7109375" style="1" customWidth="1"/>
-    <col min="756" max="967" width="8.7109375" style="1"/>
-    <col min="968" max="968" width="6.7109375" style="1" customWidth="1"/>
-    <col min="969" max="969" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="719" max="719" width="20.33203125" style="1" customWidth="1"/>
+    <col min="720" max="755" width="9.6640625" style="1" customWidth="1"/>
+    <col min="756" max="967" width="8.6640625" style="1"/>
+    <col min="968" max="968" width="6.6640625" style="1" customWidth="1"/>
+    <col min="969" max="969" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="970" max="970" width="45" style="1" customWidth="1"/>
-    <col min="971" max="971" width="7.28515625" style="1" customWidth="1"/>
+    <col min="971" max="971" width="7.33203125" style="1" customWidth="1"/>
     <col min="972" max="973" width="8" style="1" customWidth="1"/>
     <col min="974" max="974" width="12" style="1" customWidth="1"/>
-    <col min="975" max="975" width="20.28515625" style="1" customWidth="1"/>
-    <col min="976" max="1011" width="9.7109375" style="1" customWidth="1"/>
-    <col min="1012" max="1223" width="8.7109375" style="1"/>
-    <col min="1224" max="1224" width="6.7109375" style="1" customWidth="1"/>
-    <col min="1225" max="1225" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="975" max="975" width="20.33203125" style="1" customWidth="1"/>
+    <col min="976" max="1011" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1012" max="1223" width="8.6640625" style="1"/>
+    <col min="1224" max="1224" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1225" max="1225" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="1226" max="1226" width="45" style="1" customWidth="1"/>
-    <col min="1227" max="1227" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1227" max="1227" width="7.33203125" style="1" customWidth="1"/>
     <col min="1228" max="1229" width="8" style="1" customWidth="1"/>
     <col min="1230" max="1230" width="12" style="1" customWidth="1"/>
-    <col min="1231" max="1231" width="20.28515625" style="1" customWidth="1"/>
-    <col min="1232" max="1267" width="9.7109375" style="1" customWidth="1"/>
-    <col min="1268" max="1479" width="8.7109375" style="1"/>
-    <col min="1480" max="1480" width="6.7109375" style="1" customWidth="1"/>
-    <col min="1481" max="1481" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1231" max="1231" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1232" max="1267" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1268" max="1479" width="8.6640625" style="1"/>
+    <col min="1480" max="1480" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1481" max="1481" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="1482" max="1482" width="45" style="1" customWidth="1"/>
-    <col min="1483" max="1483" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1483" max="1483" width="7.33203125" style="1" customWidth="1"/>
     <col min="1484" max="1485" width="8" style="1" customWidth="1"/>
     <col min="1486" max="1486" width="12" style="1" customWidth="1"/>
-    <col min="1487" max="1487" width="20.28515625" style="1" customWidth="1"/>
-    <col min="1488" max="1523" width="9.7109375" style="1" customWidth="1"/>
-    <col min="1524" max="1735" width="8.7109375" style="1"/>
-    <col min="1736" max="1736" width="6.7109375" style="1" customWidth="1"/>
-    <col min="1737" max="1737" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1487" max="1487" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1488" max="1523" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1524" max="1735" width="8.6640625" style="1"/>
+    <col min="1736" max="1736" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1737" max="1737" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="1738" max="1738" width="45" style="1" customWidth="1"/>
-    <col min="1739" max="1739" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1739" max="1739" width="7.33203125" style="1" customWidth="1"/>
     <col min="1740" max="1741" width="8" style="1" customWidth="1"/>
     <col min="1742" max="1742" width="12" style="1" customWidth="1"/>
-    <col min="1743" max="1743" width="20.28515625" style="1" customWidth="1"/>
-    <col min="1744" max="1779" width="9.7109375" style="1" customWidth="1"/>
-    <col min="1780" max="1991" width="8.7109375" style="1"/>
-    <col min="1992" max="1992" width="6.7109375" style="1" customWidth="1"/>
-    <col min="1993" max="1993" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1743" max="1743" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1744" max="1779" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1780" max="1991" width="8.6640625" style="1"/>
+    <col min="1992" max="1992" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1993" max="1993" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="1994" max="1994" width="45" style="1" customWidth="1"/>
-    <col min="1995" max="1995" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1995" max="1995" width="7.33203125" style="1" customWidth="1"/>
     <col min="1996" max="1997" width="8" style="1" customWidth="1"/>
     <col min="1998" max="1998" width="12" style="1" customWidth="1"/>
-    <col min="1999" max="1999" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2000" max="2035" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2036" max="2247" width="8.7109375" style="1"/>
-    <col min="2248" max="2248" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2249" max="2249" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1999" max="1999" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2000" max="2035" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2036" max="2247" width="8.6640625" style="1"/>
+    <col min="2248" max="2248" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2249" max="2249" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2250" max="2250" width="45" style="1" customWidth="1"/>
-    <col min="2251" max="2251" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2251" max="2251" width="7.33203125" style="1" customWidth="1"/>
     <col min="2252" max="2253" width="8" style="1" customWidth="1"/>
     <col min="2254" max="2254" width="12" style="1" customWidth="1"/>
-    <col min="2255" max="2255" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2256" max="2291" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2292" max="2503" width="8.7109375" style="1"/>
-    <col min="2504" max="2504" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2505" max="2505" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2255" max="2255" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2256" max="2291" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2292" max="2503" width="8.6640625" style="1"/>
+    <col min="2504" max="2504" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2505" max="2505" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2506" max="2506" width="45" style="1" customWidth="1"/>
-    <col min="2507" max="2507" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2507" max="2507" width="7.33203125" style="1" customWidth="1"/>
     <col min="2508" max="2509" width="8" style="1" customWidth="1"/>
     <col min="2510" max="2510" width="12" style="1" customWidth="1"/>
-    <col min="2511" max="2511" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2512" max="2547" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2548" max="2759" width="8.7109375" style="1"/>
-    <col min="2760" max="2760" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2761" max="2761" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2511" max="2511" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2512" max="2547" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2548" max="2759" width="8.6640625" style="1"/>
+    <col min="2760" max="2760" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2761" max="2761" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2762" max="2762" width="45" style="1" customWidth="1"/>
-    <col min="2763" max="2763" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2763" max="2763" width="7.33203125" style="1" customWidth="1"/>
     <col min="2764" max="2765" width="8" style="1" customWidth="1"/>
     <col min="2766" max="2766" width="12" style="1" customWidth="1"/>
-    <col min="2767" max="2767" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2768" max="2803" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2804" max="3015" width="8.7109375" style="1"/>
-    <col min="3016" max="3016" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3017" max="3017" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2767" max="2767" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2768" max="2803" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2804" max="3015" width="8.6640625" style="1"/>
+    <col min="3016" max="3016" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3017" max="3017" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3018" max="3018" width="45" style="1" customWidth="1"/>
-    <col min="3019" max="3019" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3019" max="3019" width="7.33203125" style="1" customWidth="1"/>
     <col min="3020" max="3021" width="8" style="1" customWidth="1"/>
     <col min="3022" max="3022" width="12" style="1" customWidth="1"/>
-    <col min="3023" max="3023" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3024" max="3059" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3060" max="3271" width="8.7109375" style="1"/>
-    <col min="3272" max="3272" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3273" max="3273" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3023" max="3023" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3024" max="3059" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3060" max="3271" width="8.6640625" style="1"/>
+    <col min="3272" max="3272" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3273" max="3273" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3274" max="3274" width="45" style="1" customWidth="1"/>
-    <col min="3275" max="3275" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3275" max="3275" width="7.33203125" style="1" customWidth="1"/>
     <col min="3276" max="3277" width="8" style="1" customWidth="1"/>
     <col min="3278" max="3278" width="12" style="1" customWidth="1"/>
-    <col min="3279" max="3279" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3280" max="3315" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3316" max="3527" width="8.7109375" style="1"/>
-    <col min="3528" max="3528" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3529" max="3529" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3279" max="3279" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3280" max="3315" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3316" max="3527" width="8.6640625" style="1"/>
+    <col min="3528" max="3528" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3529" max="3529" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3530" max="3530" width="45" style="1" customWidth="1"/>
-    <col min="3531" max="3531" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3531" max="3531" width="7.33203125" style="1" customWidth="1"/>
     <col min="3532" max="3533" width="8" style="1" customWidth="1"/>
     <col min="3534" max="3534" width="12" style="1" customWidth="1"/>
-    <col min="3535" max="3535" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3536" max="3571" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3572" max="3783" width="8.7109375" style="1"/>
-    <col min="3784" max="3784" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3785" max="3785" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3535" max="3535" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3536" max="3571" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3572" max="3783" width="8.6640625" style="1"/>
+    <col min="3784" max="3784" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3785" max="3785" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3786" max="3786" width="45" style="1" customWidth="1"/>
-    <col min="3787" max="3787" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3787" max="3787" width="7.33203125" style="1" customWidth="1"/>
     <col min="3788" max="3789" width="8" style="1" customWidth="1"/>
     <col min="3790" max="3790" width="12" style="1" customWidth="1"/>
-    <col min="3791" max="3791" width="20.28515625" style="1" customWidth="1"/>
-    <col min="3792" max="3827" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3828" max="4039" width="8.7109375" style="1"/>
-    <col min="4040" max="4040" width="6.7109375" style="1" customWidth="1"/>
-    <col min="4041" max="4041" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3791" max="3791" width="20.33203125" style="1" customWidth="1"/>
+    <col min="3792" max="3827" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3828" max="4039" width="8.6640625" style="1"/>
+    <col min="4040" max="4040" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4041" max="4041" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4042" max="4042" width="45" style="1" customWidth="1"/>
-    <col min="4043" max="4043" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4043" max="4043" width="7.33203125" style="1" customWidth="1"/>
     <col min="4044" max="4045" width="8" style="1" customWidth="1"/>
     <col min="4046" max="4046" width="12" style="1" customWidth="1"/>
-    <col min="4047" max="4047" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4048" max="4083" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4084" max="4295" width="8.7109375" style="1"/>
-    <col min="4296" max="4296" width="6.7109375" style="1" customWidth="1"/>
-    <col min="4297" max="4297" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4047" max="4047" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4048" max="4083" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4084" max="4295" width="8.6640625" style="1"/>
+    <col min="4296" max="4296" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4297" max="4297" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4298" max="4298" width="45" style="1" customWidth="1"/>
-    <col min="4299" max="4299" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4299" max="4299" width="7.33203125" style="1" customWidth="1"/>
     <col min="4300" max="4301" width="8" style="1" customWidth="1"/>
     <col min="4302" max="4302" width="12" style="1" customWidth="1"/>
-    <col min="4303" max="4303" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4304" max="4339" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4340" max="4551" width="8.7109375" style="1"/>
-    <col min="4552" max="4552" width="6.7109375" style="1" customWidth="1"/>
-    <col min="4553" max="4553" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4303" max="4303" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4304" max="4339" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4340" max="4551" width="8.6640625" style="1"/>
+    <col min="4552" max="4552" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4553" max="4553" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4554" max="4554" width="45" style="1" customWidth="1"/>
-    <col min="4555" max="4555" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4555" max="4555" width="7.33203125" style="1" customWidth="1"/>
     <col min="4556" max="4557" width="8" style="1" customWidth="1"/>
     <col min="4558" max="4558" width="12" style="1" customWidth="1"/>
-    <col min="4559" max="4559" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4560" max="4595" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4596" max="4807" width="8.7109375" style="1"/>
-    <col min="4808" max="4808" width="6.7109375" style="1" customWidth="1"/>
-    <col min="4809" max="4809" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4559" max="4559" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4560" max="4595" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4596" max="4807" width="8.6640625" style="1"/>
+    <col min="4808" max="4808" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4809" max="4809" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4810" max="4810" width="45" style="1" customWidth="1"/>
-    <col min="4811" max="4811" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4811" max="4811" width="7.33203125" style="1" customWidth="1"/>
     <col min="4812" max="4813" width="8" style="1" customWidth="1"/>
     <col min="4814" max="4814" width="12" style="1" customWidth="1"/>
-    <col min="4815" max="4815" width="20.28515625" style="1" customWidth="1"/>
-    <col min="4816" max="4851" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4852" max="5063" width="8.7109375" style="1"/>
-    <col min="5064" max="5064" width="6.7109375" style="1" customWidth="1"/>
-    <col min="5065" max="5065" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4815" max="4815" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4816" max="4851" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4852" max="5063" width="8.6640625" style="1"/>
+    <col min="5064" max="5064" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5065" max="5065" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5066" max="5066" width="45" style="1" customWidth="1"/>
-    <col min="5067" max="5067" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5067" max="5067" width="7.33203125" style="1" customWidth="1"/>
     <col min="5068" max="5069" width="8" style="1" customWidth="1"/>
     <col min="5070" max="5070" width="12" style="1" customWidth="1"/>
-    <col min="5071" max="5071" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5072" max="5107" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5108" max="5319" width="8.7109375" style="1"/>
-    <col min="5320" max="5320" width="6.7109375" style="1" customWidth="1"/>
-    <col min="5321" max="5321" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5071" max="5071" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5072" max="5107" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5108" max="5319" width="8.6640625" style="1"/>
+    <col min="5320" max="5320" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5321" max="5321" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5322" max="5322" width="45" style="1" customWidth="1"/>
-    <col min="5323" max="5323" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5323" max="5323" width="7.33203125" style="1" customWidth="1"/>
     <col min="5324" max="5325" width="8" style="1" customWidth="1"/>
     <col min="5326" max="5326" width="12" style="1" customWidth="1"/>
-    <col min="5327" max="5327" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5328" max="5363" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5364" max="5575" width="8.7109375" style="1"/>
-    <col min="5576" max="5576" width="6.7109375" style="1" customWidth="1"/>
-    <col min="5577" max="5577" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5327" max="5327" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5328" max="5363" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5364" max="5575" width="8.6640625" style="1"/>
+    <col min="5576" max="5576" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5577" max="5577" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5578" max="5578" width="45" style="1" customWidth="1"/>
-    <col min="5579" max="5579" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5579" max="5579" width="7.33203125" style="1" customWidth="1"/>
     <col min="5580" max="5581" width="8" style="1" customWidth="1"/>
     <col min="5582" max="5582" width="12" style="1" customWidth="1"/>
-    <col min="5583" max="5583" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5584" max="5619" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5620" max="5831" width="8.7109375" style="1"/>
-    <col min="5832" max="5832" width="6.7109375" style="1" customWidth="1"/>
-    <col min="5833" max="5833" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5583" max="5583" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5584" max="5619" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5620" max="5831" width="8.6640625" style="1"/>
+    <col min="5832" max="5832" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5833" max="5833" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5834" max="5834" width="45" style="1" customWidth="1"/>
-    <col min="5835" max="5835" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5835" max="5835" width="7.33203125" style="1" customWidth="1"/>
     <col min="5836" max="5837" width="8" style="1" customWidth="1"/>
     <col min="5838" max="5838" width="12" style="1" customWidth="1"/>
-    <col min="5839" max="5839" width="20.28515625" style="1" customWidth="1"/>
-    <col min="5840" max="5875" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5876" max="6087" width="8.7109375" style="1"/>
-    <col min="6088" max="6088" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6089" max="6089" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5839" max="5839" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5840" max="5875" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5876" max="6087" width="8.6640625" style="1"/>
+    <col min="6088" max="6088" width="6.6640625" style="1" customWidth="1"/>
+    <col min="6089" max="6089" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6090" max="6090" width="45" style="1" customWidth="1"/>
-    <col min="6091" max="6091" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6091" max="6091" width="7.33203125" style="1" customWidth="1"/>
     <col min="6092" max="6093" width="8" style="1" customWidth="1"/>
     <col min="6094" max="6094" width="12" style="1" customWidth="1"/>
-    <col min="6095" max="6095" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6096" max="6131" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6132" max="6343" width="8.7109375" style="1"/>
-    <col min="6344" max="6344" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6345" max="6345" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6095" max="6095" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6096" max="6131" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6132" max="6343" width="8.6640625" style="1"/>
+    <col min="6344" max="6344" width="6.6640625" style="1" customWidth="1"/>
+    <col min="6345" max="6345" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6346" max="6346" width="45" style="1" customWidth="1"/>
-    <col min="6347" max="6347" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6347" max="6347" width="7.33203125" style="1" customWidth="1"/>
     <col min="6348" max="6349" width="8" style="1" customWidth="1"/>
     <col min="6350" max="6350" width="12" style="1" customWidth="1"/>
-    <col min="6351" max="6351" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6352" max="6387" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6388" max="6599" width="8.7109375" style="1"/>
-    <col min="6600" max="6600" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6601" max="6601" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6351" max="6351" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6352" max="6387" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6388" max="6599" width="8.6640625" style="1"/>
+    <col min="6600" max="6600" width="6.6640625" style="1" customWidth="1"/>
+    <col min="6601" max="6601" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6602" max="6602" width="45" style="1" customWidth="1"/>
-    <col min="6603" max="6603" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6603" max="6603" width="7.33203125" style="1" customWidth="1"/>
     <col min="6604" max="6605" width="8" style="1" customWidth="1"/>
     <col min="6606" max="6606" width="12" style="1" customWidth="1"/>
-    <col min="6607" max="6607" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6608" max="6643" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6644" max="6855" width="8.7109375" style="1"/>
-    <col min="6856" max="6856" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6857" max="6857" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6607" max="6607" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6608" max="6643" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6644" max="6855" width="8.6640625" style="1"/>
+    <col min="6856" max="6856" width="6.6640625" style="1" customWidth="1"/>
+    <col min="6857" max="6857" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6858" max="6858" width="45" style="1" customWidth="1"/>
-    <col min="6859" max="6859" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6859" max="6859" width="7.33203125" style="1" customWidth="1"/>
     <col min="6860" max="6861" width="8" style="1" customWidth="1"/>
     <col min="6862" max="6862" width="12" style="1" customWidth="1"/>
-    <col min="6863" max="6863" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6864" max="6899" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6900" max="7111" width="8.7109375" style="1"/>
-    <col min="7112" max="7112" width="6.7109375" style="1" customWidth="1"/>
-    <col min="7113" max="7113" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6863" max="6863" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6864" max="6899" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6900" max="7111" width="8.6640625" style="1"/>
+    <col min="7112" max="7112" width="6.6640625" style="1" customWidth="1"/>
+    <col min="7113" max="7113" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7114" max="7114" width="45" style="1" customWidth="1"/>
-    <col min="7115" max="7115" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7115" max="7115" width="7.33203125" style="1" customWidth="1"/>
     <col min="7116" max="7117" width="8" style="1" customWidth="1"/>
     <col min="7118" max="7118" width="12" style="1" customWidth="1"/>
-    <col min="7119" max="7119" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7120" max="7155" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7156" max="7367" width="8.7109375" style="1"/>
-    <col min="7368" max="7368" width="6.7109375" style="1" customWidth="1"/>
-    <col min="7369" max="7369" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7119" max="7119" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7120" max="7155" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7156" max="7367" width="8.6640625" style="1"/>
+    <col min="7368" max="7368" width="6.6640625" style="1" customWidth="1"/>
+    <col min="7369" max="7369" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7370" max="7370" width="45" style="1" customWidth="1"/>
-    <col min="7371" max="7371" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7371" max="7371" width="7.33203125" style="1" customWidth="1"/>
     <col min="7372" max="7373" width="8" style="1" customWidth="1"/>
     <col min="7374" max="7374" width="12" style="1" customWidth="1"/>
-    <col min="7375" max="7375" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7376" max="7411" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7412" max="7623" width="8.7109375" style="1"/>
-    <col min="7624" max="7624" width="6.7109375" style="1" customWidth="1"/>
-    <col min="7625" max="7625" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7375" max="7375" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7376" max="7411" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7412" max="7623" width="8.6640625" style="1"/>
+    <col min="7624" max="7624" width="6.6640625" style="1" customWidth="1"/>
+    <col min="7625" max="7625" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7626" max="7626" width="45" style="1" customWidth="1"/>
-    <col min="7627" max="7627" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7627" max="7627" width="7.33203125" style="1" customWidth="1"/>
     <col min="7628" max="7629" width="8" style="1" customWidth="1"/>
     <col min="7630" max="7630" width="12" style="1" customWidth="1"/>
-    <col min="7631" max="7631" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7632" max="7667" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7668" max="7879" width="8.7109375" style="1"/>
-    <col min="7880" max="7880" width="6.7109375" style="1" customWidth="1"/>
-    <col min="7881" max="7881" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7631" max="7631" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7632" max="7667" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7668" max="7879" width="8.6640625" style="1"/>
+    <col min="7880" max="7880" width="6.6640625" style="1" customWidth="1"/>
+    <col min="7881" max="7881" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7882" max="7882" width="45" style="1" customWidth="1"/>
-    <col min="7883" max="7883" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7883" max="7883" width="7.33203125" style="1" customWidth="1"/>
     <col min="7884" max="7885" width="8" style="1" customWidth="1"/>
     <col min="7886" max="7886" width="12" style="1" customWidth="1"/>
-    <col min="7887" max="7887" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7888" max="7923" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7924" max="8135" width="8.7109375" style="1"/>
-    <col min="8136" max="8136" width="6.7109375" style="1" customWidth="1"/>
-    <col min="8137" max="8137" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7887" max="7887" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7888" max="7923" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7924" max="8135" width="8.6640625" style="1"/>
+    <col min="8136" max="8136" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8137" max="8137" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8138" max="8138" width="45" style="1" customWidth="1"/>
-    <col min="8139" max="8139" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8139" max="8139" width="7.33203125" style="1" customWidth="1"/>
     <col min="8140" max="8141" width="8" style="1" customWidth="1"/>
     <col min="8142" max="8142" width="12" style="1" customWidth="1"/>
-    <col min="8143" max="8143" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8144" max="8179" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8180" max="8391" width="8.7109375" style="1"/>
-    <col min="8392" max="8392" width="6.7109375" style="1" customWidth="1"/>
-    <col min="8393" max="8393" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8143" max="8143" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8144" max="8179" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8180" max="8391" width="8.6640625" style="1"/>
+    <col min="8392" max="8392" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8393" max="8393" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8394" max="8394" width="45" style="1" customWidth="1"/>
-    <col min="8395" max="8395" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8395" max="8395" width="7.33203125" style="1" customWidth="1"/>
     <col min="8396" max="8397" width="8" style="1" customWidth="1"/>
     <col min="8398" max="8398" width="12" style="1" customWidth="1"/>
-    <col min="8399" max="8399" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8400" max="8435" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8436" max="8647" width="8.7109375" style="1"/>
-    <col min="8648" max="8648" width="6.7109375" style="1" customWidth="1"/>
-    <col min="8649" max="8649" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8399" max="8399" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8400" max="8435" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8436" max="8647" width="8.6640625" style="1"/>
+    <col min="8648" max="8648" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8649" max="8649" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8650" max="8650" width="45" style="1" customWidth="1"/>
-    <col min="8651" max="8651" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8651" max="8651" width="7.33203125" style="1" customWidth="1"/>
     <col min="8652" max="8653" width="8" style="1" customWidth="1"/>
     <col min="8654" max="8654" width="12" style="1" customWidth="1"/>
-    <col min="8655" max="8655" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8656" max="8691" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8692" max="8903" width="8.7109375" style="1"/>
-    <col min="8904" max="8904" width="6.7109375" style="1" customWidth="1"/>
-    <col min="8905" max="8905" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8655" max="8655" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8656" max="8691" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8692" max="8903" width="8.6640625" style="1"/>
+    <col min="8904" max="8904" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8905" max="8905" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8906" max="8906" width="45" style="1" customWidth="1"/>
-    <col min="8907" max="8907" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8907" max="8907" width="7.33203125" style="1" customWidth="1"/>
     <col min="8908" max="8909" width="8" style="1" customWidth="1"/>
     <col min="8910" max="8910" width="12" style="1" customWidth="1"/>
-    <col min="8911" max="8911" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8912" max="8947" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8948" max="9159" width="8.7109375" style="1"/>
-    <col min="9160" max="9160" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9161" max="9161" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8911" max="8911" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8912" max="8947" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8948" max="9159" width="8.6640625" style="1"/>
+    <col min="9160" max="9160" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9161" max="9161" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9162" max="9162" width="45" style="1" customWidth="1"/>
-    <col min="9163" max="9163" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9163" max="9163" width="7.33203125" style="1" customWidth="1"/>
     <col min="9164" max="9165" width="8" style="1" customWidth="1"/>
     <col min="9166" max="9166" width="12" style="1" customWidth="1"/>
-    <col min="9167" max="9167" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9168" max="9203" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9204" max="9415" width="8.7109375" style="1"/>
-    <col min="9416" max="9416" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9417" max="9417" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9167" max="9167" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9168" max="9203" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9204" max="9415" width="8.6640625" style="1"/>
+    <col min="9416" max="9416" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9417" max="9417" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9418" max="9418" width="45" style="1" customWidth="1"/>
-    <col min="9419" max="9419" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9419" max="9419" width="7.33203125" style="1" customWidth="1"/>
     <col min="9420" max="9421" width="8" style="1" customWidth="1"/>
     <col min="9422" max="9422" width="12" style="1" customWidth="1"/>
-    <col min="9423" max="9423" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9424" max="9459" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9460" max="9671" width="8.7109375" style="1"/>
-    <col min="9672" max="9672" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9673" max="9673" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9423" max="9423" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9424" max="9459" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9460" max="9671" width="8.6640625" style="1"/>
+    <col min="9672" max="9672" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9673" max="9673" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9674" max="9674" width="45" style="1" customWidth="1"/>
-    <col min="9675" max="9675" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9675" max="9675" width="7.33203125" style="1" customWidth="1"/>
     <col min="9676" max="9677" width="8" style="1" customWidth="1"/>
     <col min="9678" max="9678" width="12" style="1" customWidth="1"/>
-    <col min="9679" max="9679" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9680" max="9715" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9716" max="9927" width="8.7109375" style="1"/>
-    <col min="9928" max="9928" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9929" max="9929" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9679" max="9679" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9680" max="9715" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9716" max="9927" width="8.6640625" style="1"/>
+    <col min="9928" max="9928" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9929" max="9929" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9930" max="9930" width="45" style="1" customWidth="1"/>
-    <col min="9931" max="9931" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9931" max="9931" width="7.33203125" style="1" customWidth="1"/>
     <col min="9932" max="9933" width="8" style="1" customWidth="1"/>
     <col min="9934" max="9934" width="12" style="1" customWidth="1"/>
-    <col min="9935" max="9935" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9936" max="9971" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9972" max="10183" width="8.7109375" style="1"/>
-    <col min="10184" max="10184" width="6.7109375" style="1" customWidth="1"/>
-    <col min="10185" max="10185" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9935" max="9935" width="20.33203125" style="1" customWidth="1"/>
+    <col min="9936" max="9971" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9972" max="10183" width="8.6640625" style="1"/>
+    <col min="10184" max="10184" width="6.6640625" style="1" customWidth="1"/>
+    <col min="10185" max="10185" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10186" max="10186" width="45" style="1" customWidth="1"/>
-    <col min="10187" max="10187" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10187" max="10187" width="7.33203125" style="1" customWidth="1"/>
     <col min="10188" max="10189" width="8" style="1" customWidth="1"/>
     <col min="10190" max="10190" width="12" style="1" customWidth="1"/>
-    <col min="10191" max="10191" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10192" max="10227" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10228" max="10439" width="8.7109375" style="1"/>
-    <col min="10440" max="10440" width="6.7109375" style="1" customWidth="1"/>
-    <col min="10441" max="10441" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10191" max="10191" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10192" max="10227" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10228" max="10439" width="8.6640625" style="1"/>
+    <col min="10440" max="10440" width="6.6640625" style="1" customWidth="1"/>
+    <col min="10441" max="10441" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10442" max="10442" width="45" style="1" customWidth="1"/>
-    <col min="10443" max="10443" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10443" max="10443" width="7.33203125" style="1" customWidth="1"/>
     <col min="10444" max="10445" width="8" style="1" customWidth="1"/>
     <col min="10446" max="10446" width="12" style="1" customWidth="1"/>
-    <col min="10447" max="10447" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10448" max="10483" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10484" max="10695" width="8.7109375" style="1"/>
-    <col min="10696" max="10696" width="6.7109375" style="1" customWidth="1"/>
-    <col min="10697" max="10697" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10447" max="10447" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10448" max="10483" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10484" max="10695" width="8.6640625" style="1"/>
+    <col min="10696" max="10696" width="6.6640625" style="1" customWidth="1"/>
+    <col min="10697" max="10697" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10698" max="10698" width="45" style="1" customWidth="1"/>
-    <col min="10699" max="10699" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10699" max="10699" width="7.33203125" style="1" customWidth="1"/>
     <col min="10700" max="10701" width="8" style="1" customWidth="1"/>
     <col min="10702" max="10702" width="12" style="1" customWidth="1"/>
-    <col min="10703" max="10703" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10704" max="10739" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10740" max="10951" width="8.7109375" style="1"/>
-    <col min="10952" max="10952" width="6.7109375" style="1" customWidth="1"/>
-    <col min="10953" max="10953" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10703" max="10703" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10704" max="10739" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10740" max="10951" width="8.6640625" style="1"/>
+    <col min="10952" max="10952" width="6.6640625" style="1" customWidth="1"/>
+    <col min="10953" max="10953" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10954" max="10954" width="45" style="1" customWidth="1"/>
-    <col min="10955" max="10955" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10955" max="10955" width="7.33203125" style="1" customWidth="1"/>
     <col min="10956" max="10957" width="8" style="1" customWidth="1"/>
     <col min="10958" max="10958" width="12" style="1" customWidth="1"/>
-    <col min="10959" max="10959" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10960" max="10995" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10996" max="11207" width="8.7109375" style="1"/>
-    <col min="11208" max="11208" width="6.7109375" style="1" customWidth="1"/>
-    <col min="11209" max="11209" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10959" max="10959" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10960" max="10995" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10996" max="11207" width="8.6640625" style="1"/>
+    <col min="11208" max="11208" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11209" max="11209" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11210" max="11210" width="45" style="1" customWidth="1"/>
-    <col min="11211" max="11211" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11211" max="11211" width="7.33203125" style="1" customWidth="1"/>
     <col min="11212" max="11213" width="8" style="1" customWidth="1"/>
     <col min="11214" max="11214" width="12" style="1" customWidth="1"/>
-    <col min="11215" max="11215" width="20.28515625" style="1" customWidth="1"/>
-    <col min="11216" max="11251" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11252" max="11463" width="8.7109375" style="1"/>
-    <col min="11464" max="11464" width="6.7109375" style="1" customWidth="1"/>
-    <col min="11465" max="11465" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11215" max="11215" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11216" max="11251" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11252" max="11463" width="8.6640625" style="1"/>
+    <col min="11464" max="11464" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11465" max="11465" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11466" max="11466" width="45" style="1" customWidth="1"/>
-    <col min="11467" max="11467" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11467" max="11467" width="7.33203125" style="1" customWidth="1"/>
     <col min="11468" max="11469" width="8" style="1" customWidth="1"/>
     <col min="11470" max="11470" width="12" style="1" customWidth="1"/>
-    <col min="11471" max="11471" width="20.28515625" style="1" customWidth="1"/>
-    <col min="11472" max="11507" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11508" max="11719" width="8.7109375" style="1"/>
-    <col min="11720" max="11720" width="6.7109375" style="1" customWidth="1"/>
-    <col min="11721" max="11721" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11471" max="11471" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11472" max="11507" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11508" max="11719" width="8.6640625" style="1"/>
+    <col min="11720" max="11720" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11721" max="11721" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11722" max="11722" width="45" style="1" customWidth="1"/>
-    <col min="11723" max="11723" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11723" max="11723" width="7.33203125" style="1" customWidth="1"/>
     <col min="11724" max="11725" width="8" style="1" customWidth="1"/>
     <col min="11726" max="11726" width="12" style="1" customWidth="1"/>
-    <col min="11727" max="11727" width="20.28515625" style="1" customWidth="1"/>
-    <col min="11728" max="11763" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11764" max="11975" width="8.7109375" style="1"/>
-    <col min="11976" max="11976" width="6.7109375" style="1" customWidth="1"/>
-    <col min="11977" max="11977" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11727" max="11727" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11728" max="11763" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11764" max="11975" width="8.6640625" style="1"/>
+    <col min="11976" max="11976" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11977" max="11977" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11978" max="11978" width="45" style="1" customWidth="1"/>
-    <col min="11979" max="11979" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11979" max="11979" width="7.33203125" style="1" customWidth="1"/>
     <col min="11980" max="11981" width="8" style="1" customWidth="1"/>
     <col min="11982" max="11982" width="12" style="1" customWidth="1"/>
-    <col min="11983" max="11983" width="20.28515625" style="1" customWidth="1"/>
-    <col min="11984" max="12019" width="9.7109375" style="1" customWidth="1"/>
-    <col min="12020" max="12231" width="8.7109375" style="1"/>
-    <col min="12232" max="12232" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12233" max="12233" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11983" max="11983" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11984" max="12019" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12020" max="12231" width="8.6640625" style="1"/>
+    <col min="12232" max="12232" width="6.6640625" style="1" customWidth="1"/>
+    <col min="12233" max="12233" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12234" max="12234" width="45" style="1" customWidth="1"/>
-    <col min="12235" max="12235" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12235" max="12235" width="7.33203125" style="1" customWidth="1"/>
     <col min="12236" max="12237" width="8" style="1" customWidth="1"/>
     <col min="12238" max="12238" width="12" style="1" customWidth="1"/>
-    <col min="12239" max="12239" width="20.28515625" style="1" customWidth="1"/>
-    <col min="12240" max="12275" width="9.7109375" style="1" customWidth="1"/>
-    <col min="12276" max="12487" width="8.7109375" style="1"/>
-    <col min="12488" max="12488" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12489" max="12489" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12239" max="12239" width="20.33203125" style="1" customWidth="1"/>
+    <col min="12240" max="12275" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12276" max="12487" width="8.6640625" style="1"/>
+    <col min="12488" max="12488" width="6.6640625" style="1" customWidth="1"/>
+    <col min="12489" max="12489" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12490" max="12490" width="45" style="1" customWidth="1"/>
-    <col min="12491" max="12491" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12491" max="12491" width="7.33203125" style="1" customWidth="1"/>
     <col min="12492" max="12493" width="8" style="1" customWidth="1"/>
     <col min="12494" max="12494" width="12" style="1" customWidth="1"/>
-    <col min="12495" max="12495" width="20.28515625" style="1" customWidth="1"/>
-    <col min="12496" max="12531" width="9.7109375" style="1" customWidth="1"/>
-    <col min="12532" max="12743" width="8.7109375" style="1"/>
-    <col min="12744" max="12744" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12745" max="12745" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12495" max="12495" width="20.33203125" style="1" customWidth="1"/>
+    <col min="12496" max="12531" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12532" max="12743" width="8.6640625" style="1"/>
+    <col min="12744" max="12744" width="6.6640625" style="1" customWidth="1"/>
+    <col min="12745" max="12745" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12746" max="12746" width="45" style="1" customWidth="1"/>
-    <col min="12747" max="12747" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12747" max="12747" width="7.33203125" style="1" customWidth="1"/>
     <col min="12748" max="12749" width="8" style="1" customWidth="1"/>
     <col min="12750" max="12750" width="12" style="1" customWidth="1"/>
-    <col min="12751" max="12751" width="20.28515625" style="1" customWidth="1"/>
-    <col min="12752" max="12787" width="9.7109375" style="1" customWidth="1"/>
-    <col min="12788" max="12999" width="8.7109375" style="1"/>
-    <col min="13000" max="13000" width="6.7109375" style="1" customWidth="1"/>
-    <col min="13001" max="13001" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12751" max="12751" width="20.33203125" style="1" customWidth="1"/>
+    <col min="12752" max="12787" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12788" max="12999" width="8.6640625" style="1"/>
+    <col min="13000" max="13000" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13001" max="13001" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13002" max="13002" width="45" style="1" customWidth="1"/>
-    <col min="13003" max="13003" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13003" max="13003" width="7.33203125" style="1" customWidth="1"/>
     <col min="13004" max="13005" width="8" style="1" customWidth="1"/>
     <col min="13006" max="13006" width="12" style="1" customWidth="1"/>
-    <col min="13007" max="13007" width="20.28515625" style="1" customWidth="1"/>
-    <col min="13008" max="13043" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13044" max="13255" width="8.7109375" style="1"/>
-    <col min="13256" max="13256" width="6.7109375" style="1" customWidth="1"/>
-    <col min="13257" max="13257" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13007" max="13007" width="20.33203125" style="1" customWidth="1"/>
+    <col min="13008" max="13043" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13044" max="13255" width="8.6640625" style="1"/>
+    <col min="13256" max="13256" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13257" max="13257" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13258" max="13258" width="45" style="1" customWidth="1"/>
-    <col min="13259" max="13259" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13259" max="13259" width="7.33203125" style="1" customWidth="1"/>
     <col min="13260" max="13261" width="8" style="1" customWidth="1"/>
     <col min="13262" max="13262" width="12" style="1" customWidth="1"/>
-    <col min="13263" max="13263" width="20.28515625" style="1" customWidth="1"/>
-    <col min="13264" max="13299" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13300" max="13511" width="8.7109375" style="1"/>
-    <col min="13512" max="13512" width="6.7109375" style="1" customWidth="1"/>
-    <col min="13513" max="13513" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13263" max="13263" width="20.33203125" style="1" customWidth="1"/>
+    <col min="13264" max="13299" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13300" max="13511" width="8.6640625" style="1"/>
+    <col min="13512" max="13512" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13513" max="13513" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13514" max="13514" width="45" style="1" customWidth="1"/>
-    <col min="13515" max="13515" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13515" max="13515" width="7.33203125" style="1" customWidth="1"/>
     <col min="13516" max="13517" width="8" style="1" customWidth="1"/>
     <col min="13518" max="13518" width="12" style="1" customWidth="1"/>
-    <col min="13519" max="13519" width="20.28515625" style="1" customWidth="1"/>
-    <col min="13520" max="13555" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13556" max="13767" width="8.7109375" style="1"/>
-    <col min="13768" max="13768" width="6.7109375" style="1" customWidth="1"/>
-    <col min="13769" max="13769" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13519" max="13519" width="20.33203125" style="1" customWidth="1"/>
+    <col min="13520" max="13555" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13556" max="13767" width="8.6640625" style="1"/>
+    <col min="13768" max="13768" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13769" max="13769" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13770" max="13770" width="45" style="1" customWidth="1"/>
-    <col min="13771" max="13771" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13771" max="13771" width="7.33203125" style="1" customWidth="1"/>
     <col min="13772" max="13773" width="8" style="1" customWidth="1"/>
     <col min="13774" max="13774" width="12" style="1" customWidth="1"/>
-    <col min="13775" max="13775" width="20.28515625" style="1" customWidth="1"/>
-    <col min="13776" max="13811" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13812" max="14023" width="8.7109375" style="1"/>
-    <col min="14024" max="14024" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14025" max="14025" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13775" max="13775" width="20.33203125" style="1" customWidth="1"/>
+    <col min="13776" max="13811" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13812" max="14023" width="8.6640625" style="1"/>
+    <col min="14024" max="14024" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14025" max="14025" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14026" max="14026" width="45" style="1" customWidth="1"/>
-    <col min="14027" max="14027" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14027" max="14027" width="7.33203125" style="1" customWidth="1"/>
     <col min="14028" max="14029" width="8" style="1" customWidth="1"/>
     <col min="14030" max="14030" width="12" style="1" customWidth="1"/>
-    <col min="14031" max="14031" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14032" max="14067" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14068" max="14279" width="8.7109375" style="1"/>
-    <col min="14280" max="14280" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14281" max="14281" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14031" max="14031" width="20.33203125" style="1" customWidth="1"/>
+    <col min="14032" max="14067" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14068" max="14279" width="8.6640625" style="1"/>
+    <col min="14280" max="14280" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14281" max="14281" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14282" max="14282" width="45" style="1" customWidth="1"/>
-    <col min="14283" max="14283" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14283" max="14283" width="7.33203125" style="1" customWidth="1"/>
     <col min="14284" max="14285" width="8" style="1" customWidth="1"/>
     <col min="14286" max="14286" width="12" style="1" customWidth="1"/>
-    <col min="14287" max="14287" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14288" max="14323" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14324" max="14535" width="8.7109375" style="1"/>
-    <col min="14536" max="14536" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14537" max="14537" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14287" max="14287" width="20.33203125" style="1" customWidth="1"/>
+    <col min="14288" max="14323" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14324" max="14535" width="8.6640625" style="1"/>
+    <col min="14536" max="14536" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14537" max="14537" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14538" max="14538" width="45" style="1" customWidth="1"/>
-    <col min="14539" max="14539" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14539" max="14539" width="7.33203125" style="1" customWidth="1"/>
     <col min="14540" max="14541" width="8" style="1" customWidth="1"/>
     <col min="14542" max="14542" width="12" style="1" customWidth="1"/>
-    <col min="14543" max="14543" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14544" max="14579" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14580" max="14791" width="8.7109375" style="1"/>
-    <col min="14792" max="14792" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14793" max="14793" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14543" max="14543" width="20.33203125" style="1" customWidth="1"/>
+    <col min="14544" max="14579" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14580" max="14791" width="8.6640625" style="1"/>
+    <col min="14792" max="14792" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14793" max="14793" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14794" max="14794" width="45" style="1" customWidth="1"/>
-    <col min="14795" max="14795" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14795" max="14795" width="7.33203125" style="1" customWidth="1"/>
     <col min="14796" max="14797" width="8" style="1" customWidth="1"/>
     <col min="14798" max="14798" width="12" style="1" customWidth="1"/>
-    <col min="14799" max="14799" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14800" max="14835" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14836" max="15047" width="8.7109375" style="1"/>
-    <col min="15048" max="15048" width="6.7109375" style="1" customWidth="1"/>
-    <col min="15049" max="15049" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14799" max="14799" width="20.33203125" style="1" customWidth="1"/>
+    <col min="14800" max="14835" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14836" max="15047" width="8.6640625" style="1"/>
+    <col min="15048" max="15048" width="6.6640625" style="1" customWidth="1"/>
+    <col min="15049" max="15049" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15050" max="15050" width="45" style="1" customWidth="1"/>
-    <col min="15051" max="15051" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15051" max="15051" width="7.33203125" style="1" customWidth="1"/>
     <col min="15052" max="15053" width="8" style="1" customWidth="1"/>
     <col min="15054" max="15054" width="12" style="1" customWidth="1"/>
-    <col min="15055" max="15055" width="20.28515625" style="1" customWidth="1"/>
-    <col min="15056" max="15091" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15092" max="15303" width="8.7109375" style="1"/>
-    <col min="15304" max="15304" width="6.7109375" style="1" customWidth="1"/>
-    <col min="15305" max="15305" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15055" max="15055" width="20.33203125" style="1" customWidth="1"/>
+    <col min="15056" max="15091" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15092" max="15303" width="8.6640625" style="1"/>
+    <col min="15304" max="15304" width="6.6640625" style="1" customWidth="1"/>
+    <col min="15305" max="15305" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15306" max="15306" width="45" style="1" customWidth="1"/>
-    <col min="15307" max="15307" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15307" max="15307" width="7.33203125" style="1" customWidth="1"/>
     <col min="15308" max="15309" width="8" style="1" customWidth="1"/>
     <col min="15310" max="15310" width="12" style="1" customWidth="1"/>
-    <col min="15311" max="15311" width="20.28515625" style="1" customWidth="1"/>
-    <col min="15312" max="15347" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15348" max="15559" width="8.7109375" style="1"/>
-    <col min="15560" max="15560" width="6.7109375" style="1" customWidth="1"/>
-    <col min="15561" max="15561" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15311" max="15311" width="20.33203125" style="1" customWidth="1"/>
+    <col min="15312" max="15347" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15348" max="15559" width="8.6640625" style="1"/>
+    <col min="15560" max="15560" width="6.6640625" style="1" customWidth="1"/>
+    <col min="15561" max="15561" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15562" max="15562" width="45" style="1" customWidth="1"/>
-    <col min="15563" max="15563" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15563" max="15563" width="7.33203125" style="1" customWidth="1"/>
     <col min="15564" max="15565" width="8" style="1" customWidth="1"/>
     <col min="15566" max="15566" width="12" style="1" customWidth="1"/>
-    <col min="15567" max="15567" width="20.28515625" style="1" customWidth="1"/>
-    <col min="15568" max="15603" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15604" max="15815" width="8.7109375" style="1"/>
-    <col min="15816" max="15816" width="6.7109375" style="1" customWidth="1"/>
-    <col min="15817" max="15817" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15567" max="15567" width="20.33203125" style="1" customWidth="1"/>
+    <col min="15568" max="15603" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15604" max="15815" width="8.6640625" style="1"/>
+    <col min="15816" max="15816" width="6.6640625" style="1" customWidth="1"/>
+    <col min="15817" max="15817" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15818" max="15818" width="45" style="1" customWidth="1"/>
-    <col min="15819" max="15819" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15819" max="15819" width="7.33203125" style="1" customWidth="1"/>
     <col min="15820" max="15821" width="8" style="1" customWidth="1"/>
     <col min="15822" max="15822" width="12" style="1" customWidth="1"/>
-    <col min="15823" max="15823" width="20.28515625" style="1" customWidth="1"/>
-    <col min="15824" max="15859" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15860" max="16071" width="8.7109375" style="1"/>
-    <col min="16072" max="16072" width="6.7109375" style="1" customWidth="1"/>
-    <col min="16073" max="16073" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15823" max="15823" width="20.33203125" style="1" customWidth="1"/>
+    <col min="15824" max="15859" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15860" max="16071" width="8.6640625" style="1"/>
+    <col min="16072" max="16072" width="6.6640625" style="1" customWidth="1"/>
+    <col min="16073" max="16073" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16074" max="16074" width="45" style="1" customWidth="1"/>
-    <col min="16075" max="16075" width="7.28515625" style="1" customWidth="1"/>
+    <col min="16075" max="16075" width="7.33203125" style="1" customWidth="1"/>
     <col min="16076" max="16077" width="8" style="1" customWidth="1"/>
     <col min="16078" max="16078" width="12" style="1" customWidth="1"/>
-    <col min="16079" max="16079" width="20.28515625" style="1" customWidth="1"/>
-    <col min="16080" max="16115" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16116" max="16327" width="8.7109375" style="1"/>
-    <col min="16328" max="16328" width="8.7109375" style="1" customWidth="1"/>
-    <col min="16329" max="16357" width="8.7109375" style="1"/>
-    <col min="16358" max="16382" width="8.7109375" style="1" customWidth="1"/>
-    <col min="16383" max="16384" width="8.7109375" style="1"/>
+    <col min="16079" max="16079" width="20.33203125" style="1" customWidth="1"/>
+    <col min="16080" max="16115" width="9.6640625" style="1" customWidth="1"/>
+    <col min="16116" max="16327" width="8.6640625" style="1"/>
+    <col min="16328" max="16328" width="8.6640625" style="1" customWidth="1"/>
+    <col min="16329" max="16357" width="8.6640625" style="1"/>
+    <col min="16358" max="16382" width="8.6640625" style="1" customWidth="1"/>
+    <col min="16383" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="52.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1602,376 +1544,373 @@
       <c r="I2" s="4"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" s="13" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:12" s="13" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:12" s="13" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:12" s="13" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="1:12" s="13" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="G10" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+    </row>
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:12" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="47" t="s">
+      <c r="J13" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="29"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="47" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-    </row>
-    <row r="6" spans="1:12" s="13" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-    </row>
-    <row r="7" spans="1:12" s="13" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-    </row>
-    <row r="8" spans="1:12" s="13" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-    </row>
-    <row r="9" spans="1:12" s="13" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="53" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-    </row>
-    <row r="10" spans="1:12" s="13" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" s="13" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:12" s="17" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-    </row>
-    <row r="12" spans="1:12" s="10" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="30"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" spans="1:12" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
+    <row r="22" spans="1:12" s="13" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
     </row>
-    <row r="23" spans="1:12" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+    <row r="23" spans="1:12" s="13" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:12" s="13" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="1:12" s="13" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-    </row>
-    <row r="26" spans="1:12" s="26" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-    </row>
-    <row r="27" spans="1:12" s="26" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="13" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+    </row>
+    <row r="25" spans="1:12" s="13" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+    </row>
+    <row r="26" spans="1:12" s="25" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="1:12" s="25" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="1:12" s="26" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:12" s="25" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1983,7 +1922,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:12" s="26" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1995,7 +1934,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:12" s="26" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="25" customFormat="1" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2007,7 +1946,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:12" s="26" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -2019,7 +1958,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:12" s="26" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="25" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2031,7 +1970,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:10" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2043,7 +1982,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2055,7 +1994,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2067,7 +2006,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2079,7 +2018,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2091,7 +2030,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2103,54 +2042,41 @@
       <c r="I38" s="1"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="A15:G15"/>
@@ -2164,10 +2090,23 @@
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="G10:J10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.35433070866141736" bottom="0" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="9" scale="67" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;G</oddFooter>
   </headerFooter>
